--- a/src/test/resources/excel/PayBillsSuite.xlsx
+++ b/src/test/resources/excel/PayBillsSuite.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC95FE3-2946-441F-969A-4689A44DF408}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -104,9 +105,6 @@
     <t>AddNewPayeeVerifyPage</t>
   </si>
   <si>
-    <t>Who are you paying?</t>
-  </si>
-  <si>
     <t>AddNewPayeeFunctionTest</t>
   </si>
   <si>
@@ -147,12 +145,15 @@
   </si>
   <si>
     <t>Purchase foreign currency cash</t>
+  </si>
+  <si>
+    <t>Payee Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,19 +493,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -512,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -520,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -528,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -536,25 +537,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -566,47 +567,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -620,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -634,12 +635,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -668,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -697,12 +698,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -716,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -727,17 +728,17 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -751,19 +752,19 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -777,24 +778,24 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -808,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -819,15 +820,15 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -844,10 +845,10 @@
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -858,13 +859,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -874,24 +875,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
